--- a/Goldstandard_annotationen/gold_standard_2.xlsx
+++ b/Goldstandard_annotationen/gold_standard_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelin\Projects\Project_Seminar_MDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pelin\Projects\Project_Seminar_MDS\Goldstandard_annotationen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC88C87-9190-4B26-9C4F-532FA6763606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ECFFA3-C5CC-442C-BEEA-9D2A65514D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB6C8AC7-5F32-471C-A3A7-F5ACB66ADF77}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="10065" xr2:uid="{BB6C8AC7-5F32-471C-A3A7-F5ACB66ADF77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
   <si>
     <t>filename</t>
   </si>
@@ -135,6 +135,216 @@
   </si>
   <si>
     <t>Lisinopril</t>
+  </si>
+  <si>
+    <t>6. Unterbauchschmerzen.txt</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin 500 mg, 1-0-1</t>
+  </si>
+  <si>
+    <t>Ibuprofen 400 mg, 1-1-1, bei Bedarf</t>
+  </si>
+  <si>
+    <t>Macrogol 13,7 g, 1-0-1, bei Bedarf</t>
+  </si>
+  <si>
+    <t>7. thorakalem Druckgefühl.txt</t>
+  </si>
+  <si>
+    <t>Amlodipin 10 mg</t>
+  </si>
+  <si>
+    <t>Metformin 1000 mg zweimal täglich</t>
+  </si>
+  <si>
+    <t>Paracetamol 500 mg, 1-1-1, bei Bedarf</t>
+  </si>
+  <si>
+    <t>Diazepam 5 mg, 1-0-1, bei Bedarf</t>
+  </si>
+  <si>
+    <t>8. Fieber.txt</t>
+  </si>
+  <si>
+    <t>Ceftriaxon 2 g, 1-0-0, intravenös</t>
+  </si>
+  <si>
+    <t>NaCl 0,9%, 1000 ml über 8 Stunden, intravenös</t>
+  </si>
+  <si>
+    <t>9. Brennen beim Wasserlassen.txt</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin 500 mg, 1-0-1 für 5 Tage</t>
+  </si>
+  <si>
+    <t>10. Erbrechen.txt</t>
+  </si>
+  <si>
+    <t>Furosemid 20 mg</t>
+  </si>
+  <si>
+    <t>Calciumacetat 500 mg</t>
+  </si>
+  <si>
+    <t>Metoclopramid 10 mg, 1-1-1, intravenös</t>
+  </si>
+  <si>
+    <t>Reduktion von Furosemid auf 10 mg, einmal täglich</t>
+  </si>
+  <si>
+    <t>11. Teerstuhl.txt</t>
+  </si>
+  <si>
+    <t>regelmäßig Amlodipin 5 mg</t>
+  </si>
+  <si>
+    <t>1000 ml NaCl 0,9% über 8 Stunden</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin 500 mg, 1-0-1 für 7 Tage</t>
+  </si>
+  <si>
+    <t>Ferrosulfat 100 mg, 1-0-1</t>
+  </si>
+  <si>
+    <t>12. vorübergehende Bewusstlosigkeit.txt</t>
+  </si>
+  <si>
+    <t>Ramipril 10 mg täglich</t>
+  </si>
+  <si>
+    <t>Metformin</t>
+  </si>
+  <si>
+    <t>13. akute Nierenversage.txt</t>
+  </si>
+  <si>
+    <t>Lisinopril 10 mg täglich</t>
+  </si>
+  <si>
+    <t>NaCl 0,9%, 1000 ml über 4 Stunden</t>
+  </si>
+  <si>
+    <t>Diuretika</t>
+  </si>
+  <si>
+    <t>14. Exsikkose.txt</t>
+  </si>
+  <si>
+    <t>Amlodipin 5 mg täglich</t>
+  </si>
+  <si>
+    <t>Amlodipin wurde vorübergehend pausiert</t>
+  </si>
+  <si>
+    <t>15. Hypoglykämie.txt</t>
+  </si>
+  <si>
+    <t>regelmäßig Metformin 1000 mg zweimal täglich</t>
+  </si>
+  <si>
+    <t>20 g Traubenzucker</t>
+  </si>
+  <si>
+    <t>16. Palpitationen.txt</t>
+  </si>
+  <si>
+    <t>NaCl 0,9%, 500 ml über 2 Stunden</t>
+  </si>
+  <si>
+    <t>17. Luftnot.txt</t>
+  </si>
+  <si>
+    <t>Ramipril 10 mg</t>
+  </si>
+  <si>
+    <t>Salbutamol bei Bedarf</t>
+  </si>
+  <si>
+    <t>Furosemid 40 mg</t>
+  </si>
+  <si>
+    <t>Sauerstoff über Nasensonde mit 2 l/min</t>
+  </si>
+  <si>
+    <t>Salbutamol</t>
+  </si>
+  <si>
+    <t>18. Ungerichteter Schwindel.txt</t>
+  </si>
+  <si>
+    <t>regelmäßig Ramipril 10 mg</t>
+  </si>
+  <si>
+    <t>Amlodipin 5 mg</t>
+  </si>
+  <si>
+    <t>NaCl 0,9%, 500 ml über 4 Stunden</t>
+  </si>
+  <si>
+    <t>Betahistin 16 mg, 1-0-1</t>
+  </si>
+  <si>
+    <t>19. Exanthem-nicht juckend.txt</t>
+  </si>
+  <si>
+    <t>Prednisolon 40 mg täglich für 5 Tage</t>
+  </si>
+  <si>
+    <t>20. Ohrenschmerzen.txt</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin Ohrentropfen, 3 Tropfen, 3-mal täglich für 7 Tage</t>
+  </si>
+  <si>
+    <t>21.Pankreatitis.txt</t>
+  </si>
+  <si>
+    <t>NaCl 0,9%, 2000 ml über 24 Stunden</t>
+  </si>
+  <si>
+    <t>Metamizol 500 mg intravenös, bei Bedarf</t>
+  </si>
+  <si>
+    <t>Ceftriaxon 2 g täglich</t>
+  </si>
+  <si>
+    <t>22. Gastritis.txt</t>
+  </si>
+  <si>
+    <t>Schmerzmittel</t>
+  </si>
+  <si>
+    <t>Pantoprazol 40 mg täglich</t>
+  </si>
+  <si>
+    <t>Reduktion der Schmerzmittel</t>
+  </si>
+  <si>
+    <t>nicht-steroidalen Antirheumatika (NSAR)</t>
+  </si>
+  <si>
+    <t>23. Choledocholithiasis.txt</t>
+  </si>
+  <si>
+    <t>Ceftriaxon 2 g täglich intravenös</t>
+  </si>
+  <si>
+    <t>NaCl 0,9%, 1000 ml über 8 Stunden</t>
+  </si>
+  <si>
+    <t>24. Cholangitis.txt</t>
+  </si>
+  <si>
+    <t>Dimenhydrinat 50 mg intravenös, bei Bedarf</t>
+  </si>
+  <si>
+    <t>25. Cholzystits.txt</t>
+  </si>
+  <si>
+    <t>26. CHolezytolithiasis.txt</t>
   </si>
 </sst>
 </file>
@@ -506,15 +716,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06C5220-BE79-4620-A738-52BB388B398F}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="45" customWidth="1"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,6 +944,630 @@
         <v>32</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
